--- a/data/trans_dic/P1803-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1803-Estudios-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_dic/P1803-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1803-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +544,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,12 +666,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -627,6 +682,36 @@
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,97%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>2,48; 5,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,78; 5,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 5,63</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5,55; 8,03</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,08</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
           <t>0; 0,09</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 5,03</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4,76; 6,83</t>
         </is>
       </c>
     </row>
@@ -691,12 +806,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -707,6 +822,36 @@
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0; 0,12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,1</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,37; 5,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>7,54; 16,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0; 0,12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4,3; 6,34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7,35; 10,06</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 5,54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8,04; 14,1</t>
         </is>
       </c>
     </row>
@@ -771,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -787,6 +962,36 @@
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8,8%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15,39%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,66; 9,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>9,78; 15,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,46</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6,61; 11,47</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13,14; 18,2</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,2</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,23</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 9,66</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12,1; 15,81</t>
         </is>
       </c>
     </row>
@@ -851,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -867,6 +1102,36 @@
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9,61%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,05%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9,59%</t>
         </is>
       </c>
     </row>
@@ -889,22 +1154,52 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>3,91; 5,41</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7,74; 14,33</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4,8; 6,35</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8,5; 10,53</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,03</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,54; 5,61</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 12,08</t>
         </is>
       </c>
     </row>
@@ -918,13 +1213,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P1803-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1803-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,74%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,96</t>
+          <t>2,82; 6,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 8,03</t>
+          <t>5,65; 8,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,76; 6,83</t>
+          <t>4,78; 6,9</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>13,23%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,54; 16,82</t>
+          <t>7,75; 38,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 10,06</t>
+          <t>5,86; 9,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 14,1</t>
+          <t>7,87; 30,02</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>14,35%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 15,36</t>
+          <t>10,05; 15,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,14; 18,2</t>
+          <t>13,55; 18,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,1; 15,81</t>
+          <t>12,42; 16,28</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>12,09%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,74; 14,33</t>
+          <t>8,02; 33,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,5; 10,53</t>
+          <t>7,74; 10,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,08</t>
+          <t>8,71; 24,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1803-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1803-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,3</t>
+          <t>2,54; 5,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,05</t>
+          <t>2,88; 6,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,63</t>
+          <t>2,97; 5,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,18</t>
+          <t>5,51; 8,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 5,03</t>
+          <t>3,09; 5,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 6,9</t>
+          <t>4,83; 6,88</t>
         </is>
       </c>
     </row>
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,23</t>
+          <t>3,37; 5,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,75; 38,6</t>
+          <t>7,54; 43,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 6,34</t>
+          <t>4,3; 6,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,86; 9,83</t>
+          <t>6,08; 10,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 5,54</t>
+          <t>4,11; 5,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,87; 30,02</t>
+          <t>7,89; 28,58</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 9,36</t>
+          <t>4,8; 9,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,05; 15,92</t>
+          <t>10,24; 15,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 11,47</t>
+          <t>6,62; 11,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,55; 18,76</t>
+          <t>13,44; 18,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,66</t>
+          <t>6,27; 9,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,42; 16,28</t>
+          <t>12,31; 16,23</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 5,41</t>
+          <t>3,88; 5,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 33,63</t>
+          <t>8,0; 33,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 6,35</t>
+          <t>4,78; 6,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,74; 10,49</t>
+          <t>7,65; 10,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 5,61</t>
+          <t>4,57; 5,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 24,29</t>
+          <t>8,66; 23,01</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Poblaciónque en los últimos 12 meses han visitado un fisioterapeuta</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>28158</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>21770</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>41270</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>51081</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>69429</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>72851</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1907</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2059</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>19154; 40066</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14842; 31509</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1955</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2059</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>29540; 56332</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>41633; 61536</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1934</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2060</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>53967; 88931</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>61278; 87425</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>88374</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>410051</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>105160</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>188755</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>193534</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>598807</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1971</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2031</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>69944; 109255</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>172613; 994040</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1961</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2063</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>85532; 128869</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>136063; 224051</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1967</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2047</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>167052; 220977</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>357235; 1294169</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>37917</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>82686</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>48333</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>104830</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>86250</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>187515</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2005</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2104</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>26229; 53057</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>66203; 102554</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2019</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2132</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36380; 63661</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>88758; 123263</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2014</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2121</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>68711; 105995</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>160948; 212104</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>812</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>154450</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>514508</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>194763</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>344666</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>349213</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>859173</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2051</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>131130; 183072</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>276036; 1155802</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>168777; 222938</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>279539; 383356</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2062</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>315564; 385782</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>614931; 1634500</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>